--- a/src/test/resources/CollateralData.xlsx
+++ b/src/test/resources/CollateralData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AjayP\Desktop\Java Programs\Collateral360\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AjayP\Desktop\V2C360\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB8459A-8755-4118-AAC8-88B733C028BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0EB9E-0A68-465F-BC27-7B1D6825EF5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C1729F2-AAE0-4F76-8D09-2040F4011829}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2C1729F2-AAE0-4F76-8D09-2040F4011829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SERVICES!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,10 +552,10 @@
     <t>Desired Report Delivery Date (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>test edr</t>
-  </si>
-  <si>
-    <t>250 washington ave</t>
+    <t>220  washington ave</t>
+  </si>
+  <si>
+    <t>edr test 2</t>
   </si>
 </sst>
 </file>
@@ -565,7 +564,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -906,31 +905,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -953,6 +928,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1343,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431500C-C076-4D9D-AAF5-855AF73F248E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1356,8 +1355,8 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" s="35" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1395,8 +1394,8 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="8" spans="1:4" s="26" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:4" s="35" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1486,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6093534-18D5-432B-A49C-3C156DAB99BF}">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,8 +1707,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="27" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:48" s="36" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1780,13 +1779,13 @@
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2">
         <v>2023514</v>
       </c>
       <c r="D6" s="2">
-        <v>15200001</v>
+        <v>2547865</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>120</v>
@@ -1794,10 +1793,10 @@
       <c r="F6" s="2">
         <v>1201</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="26">
         <v>44027</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="26">
         <v>43810</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1844,10 +1843,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="28" t="s">
         <v>161</v>
       </c>
       <c r="I7" s="1"/>
@@ -1866,8 +1865,8 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:48" s="27" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:48" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2022,7 +2021,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>107</v>
@@ -2141,7 +2140,7 @@
       <c r="AR10" s="2">
         <v>45645646</v>
       </c>
-      <c r="AS10" s="34">
+      <c r="AS10" s="26">
         <v>43720</v>
       </c>
       <c r="AT10" s="2" t="s">
@@ -2152,7 +2151,7 @@
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AS11" s="35" t="s">
+      <c r="AS11" s="27" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2182,11 +2181,11 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2278,14 +2277,14 @@
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="24" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:48" s="32" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="Q1" s="30"/>
+    </row>
+    <row r="2" spans="1:48" s="41" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2338,7 +2337,7 @@
       <c r="P3" s="10">
         <v>15</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="31">
         <v>16</v>
       </c>
       <c r="R3" s="9">
@@ -2436,14 +2435,14 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="Q4" s="40"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:48" s="20" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -2491,15 +2490,15 @@
       <c r="P5" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="33" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+      <c r="B6" s="26">
         <v>43811</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="26">
         <v>44260</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2541,15 +2540,15 @@
       <c r="P6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="29">
         <v>2626566</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="27" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2557,13 +2556,13 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:48" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="42"/>
     </row>
     <row r="10" spans="1:48" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
